--- a/exports/statistics/analysis_cortisol_raw_wakeup_source.xlsx
+++ b/exports/statistics/analysis_cortisol_raw_wakeup_source.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
   <si>
     <t>parameter</t>
   </si>
@@ -83,12 +83,12 @@
     <t>S4</t>
   </si>
   <si>
+    <t>Spontaneous</t>
+  </si>
+  <si>
     <t>Alarm</t>
   </si>
   <si>
-    <t>Spontaneous</t>
-  </si>
-  <si>
     <t>Not Specified</t>
   </si>
   <si>
@@ -194,88 +194,85 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>3.681e+16</t>
-  </si>
-  <si>
-    <t>3.274e+18</t>
-  </si>
-  <si>
-    <t>2.517e+13</t>
-  </si>
-  <si>
-    <t>3.043e+07</t>
-  </si>
-  <si>
-    <t>1.964e+08</t>
-  </si>
-  <si>
-    <t>377.454</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>1016.175</t>
-  </si>
-  <si>
-    <t>5.347e+07</t>
-  </si>
-  <si>
-    <t>8784.628</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>1.183e+06</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.866</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>193.162</t>
-  </si>
-  <si>
-    <t>0.178</t>
-  </si>
-  <si>
-    <t>514.002</t>
-  </si>
-  <si>
-    <t>35.886</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>1.397e+04</t>
-  </si>
-  <si>
-    <t>1.041</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>5.388</t>
+    <t>2.402e+17</t>
+  </si>
+  <si>
+    <t>6.145e+21</t>
+  </si>
+  <si>
+    <t>7.863e+14</t>
+  </si>
+  <si>
+    <t>2.041e+08</t>
+  </si>
+  <si>
+    <t>5.777e+08</t>
+  </si>
+  <si>
+    <t>253.009</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>138.04</t>
+  </si>
+  <si>
+    <t>4.281e+06</t>
+  </si>
+  <si>
+    <t>5.046e+04</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>1.525e+06</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>73.95</t>
+  </si>
+  <si>
+    <t>70.379</t>
+  </si>
+  <si>
+    <t>333.732</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>1.33e+04</t>
+  </si>
+  <si>
+    <t>1.039</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>1.948</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -745,10 +742,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.949</v>
+        <v>0.931</v>
       </c>
       <c r="D3">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -760,10 +757,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.746</v>
+        <v>0.958</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -775,10 +772,10 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.993</v>
+        <v>0.988</v>
       </c>
       <c r="D5">
-        <v>0.995</v>
+        <v>0.949</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -792,13 +789,13 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.9419999999999999</v>
+        <v>0.983</v>
       </c>
       <c r="D6">
-        <v>0.001</v>
+        <v>0.497</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -807,7 +804,7 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.93</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D7">
         <v>0.001</v>
@@ -822,10 +819,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.9350000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D8">
-        <v>0.616</v>
+        <v>0.226</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -839,13 +836,13 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.958</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.347</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -854,13 +851,13 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.914</v>
+        <v>0.972</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -869,10 +866,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.879</v>
+        <v>0.931</v>
       </c>
       <c r="D11">
-        <v>0.266</v>
+        <v>0.602</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -886,13 +883,13 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>0.947</v>
+        <v>0.97</v>
       </c>
       <c r="D12">
-        <v>0.002</v>
+        <v>0.106</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -901,13 +898,13 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.97</v>
+        <v>0.962</v>
       </c>
       <c r="D13">
-        <v>0.078</v>
+        <v>0.032</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -916,10 +913,10 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>0.9320000000000001</v>
+        <v>0.883</v>
       </c>
       <c r="D14">
-        <v>0.593</v>
+        <v>0.351</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -933,10 +930,10 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.913</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -948,10 +945,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.931</v>
+        <v>0.946</v>
       </c>
       <c r="D16">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -963,10 +960,10 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.824</v>
+        <v>0.771</v>
       </c>
       <c r="D17">
-        <v>0.096</v>
+        <v>0.06</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1020,10 +1017,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>0.553</v>
+        <v>0.112</v>
       </c>
       <c r="D3">
-        <v>0.577</v>
+        <v>0.894</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1037,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>0.673</v>
+        <v>0.203</v>
       </c>
       <c r="D4">
-        <v>0.512</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1054,10 +1051,10 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>2.306</v>
+        <v>1.722</v>
       </c>
       <c r="D5">
-        <v>0.103</v>
+        <v>0.183</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1071,13 +1068,13 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>4.551</v>
+        <v>2.738</v>
       </c>
       <c r="D6">
-        <v>0.012</v>
+        <v>0.068</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1088,10 +1085,10 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>2.583</v>
+        <v>2.296</v>
       </c>
       <c r="D7">
-        <v>0.079</v>
+        <v>0.104</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1164,22 +1161,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>455.912</v>
+        <v>319.633</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F3">
-        <v>227.956</v>
+        <v>159.816</v>
       </c>
       <c r="G3">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="H3">
-        <v>0.14</v>
+        <v>0.171</v>
       </c>
       <c r="J3">
         <v>0.025</v>
@@ -1193,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3998.086</v>
+        <v>3329.049</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="F4">
-        <v>999.522</v>
+        <v>832.2619999999999</v>
       </c>
       <c r="G4">
-        <v>55.639</v>
+        <v>58.428</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1214,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.263</v>
+        <v>0.296</v>
       </c>
       <c r="K4">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1237,25 +1234,25 @@
         <v>41</v>
       </c>
       <c r="C5">
-        <v>714.1799999999999</v>
+        <v>470.14</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="F5">
-        <v>89.27200000000001</v>
+        <v>58.768</v>
       </c>
       <c r="G5">
-        <v>4.969</v>
+        <v>4.126</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06</v>
+        <v>0.056</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1343,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-10.392</v>
+        <v>-10.893</v>
       </c>
       <c r="I3">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
@@ -1364,7 +1361,7 @@
         <v>58</v>
       </c>
       <c r="O3">
-        <v>-0.722</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1390,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-11.123</v>
+        <v>-12.624</v>
       </c>
       <c r="I4">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
         <v>57</v>
@@ -1411,7 +1408,7 @@
         <v>59</v>
       </c>
       <c r="O4">
-        <v>-1.086</v>
+        <v>-1.247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1437,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-9.18</v>
+        <v>-9.907999999999999</v>
       </c>
       <c r="I5">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
@@ -1458,7 +1455,7 @@
         <v>60</v>
       </c>
       <c r="O5">
-        <v>-0.998</v>
+        <v>-1.127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1484,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-6.741</v>
+        <v>-7.162</v>
       </c>
       <c r="I6">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
         <v>57</v>
@@ -1505,7 +1502,7 @@
         <v>61</v>
       </c>
       <c r="O6">
-        <v>-0.745</v>
+        <v>-0.862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1531,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-7.097</v>
+        <v>-7.362</v>
       </c>
       <c r="I7">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
@@ -1552,7 +1549,7 @@
         <v>62</v>
       </c>
       <c r="O7">
-        <v>-0.411</v>
+        <v>-0.413</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1578,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.237</v>
+        <v>-4.13</v>
       </c>
       <c r="I8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
         <v>57</v>
@@ -1599,7 +1596,7 @@
         <v>63</v>
       </c>
       <c r="O8">
-        <v>-0.348</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1625,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.999</v>
+        <v>-0.97</v>
       </c>
       <c r="I9">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.319</v>
+        <v>0.334</v>
       </c>
       <c r="L9">
-        <v>0.342</v>
+        <v>0.371</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1646,7 +1643,7 @@
         <v>64</v>
       </c>
       <c r="O9">
-        <v>-0.092</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1672,19 +1669,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.952</v>
+        <v>0.539</v>
       </c>
       <c r="I10">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>57</v>
       </c>
       <c r="K10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="L10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1693,7 +1690,7 @@
         <v>65</v>
       </c>
       <c r="O10">
-        <v>0.048</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1719,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.495</v>
+        <v>3.96</v>
       </c>
       <c r="I11">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
         <v>57</v>
@@ -1740,7 +1737,7 @@
         <v>66</v>
       </c>
       <c r="O11">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1766,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6.849</v>
+        <v>6.394</v>
       </c>
       <c r="I12">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
@@ -1787,7 +1784,7 @@
         <v>67</v>
       </c>
       <c r="O12">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1801,7 +1798,7 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
@@ -1813,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-5.266</v>
+        <v>-5.85</v>
       </c>
       <c r="I13">
-        <v>49.475</v>
+        <v>23.64</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
@@ -1834,7 +1831,7 @@
         <v>68</v>
       </c>
       <c r="O13">
-        <v>-0.702</v>
+        <v>-0.855</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1848,11 +1845,11 @@
         <v>56</v>
       </c>
       <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
@@ -1860,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.514</v>
+        <v>0.205</v>
       </c>
       <c r="I14">
-        <v>148.397</v>
+        <v>133.065</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
       <c r="K14">
-        <v>0.608</v>
+        <v>0.838</v>
       </c>
       <c r="L14">
-        <v>0.608</v>
+        <v>0.838</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
@@ -1881,7 +1878,7 @@
         <v>69</v>
       </c>
       <c r="O14">
-        <v>0.082</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1898,7 +1895,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1907,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>6.583</v>
+        <v>6.797</v>
       </c>
       <c r="I15">
-        <v>36.587</v>
+        <v>16.212</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
@@ -1928,7 +1925,7 @@
         <v>70</v>
       </c>
       <c r="O15">
-        <v>0.952</v>
+        <v>1.094</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1942,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -1954,19 +1951,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-0.632</v>
+        <v>0.516</v>
       </c>
       <c r="I16">
-        <v>5.681</v>
+        <v>3.46</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
       </c>
       <c r="K16">
-        <v>0.552</v>
+        <v>0.637</v>
       </c>
       <c r="L16">
-        <v>0.6899999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
@@ -1975,7 +1972,7 @@
         <v>71</v>
       </c>
       <c r="O16">
-        <v>-0.282</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1989,11 +1986,11 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
@@ -2001,19 +1998,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-1.873</v>
+        <v>-1.178</v>
       </c>
       <c r="I17">
-        <v>124.627</v>
+        <v>134.548</v>
       </c>
       <c r="J17" t="s">
         <v>57</v>
       </c>
       <c r="K17">
-        <v>0.063</v>
+        <v>0.241</v>
       </c>
       <c r="L17">
-        <v>0.12</v>
+        <v>0.381</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
@@ -2022,7 +2019,7 @@
         <v>72</v>
       </c>
       <c r="O17">
-        <v>-0.305</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2039,7 +2036,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2048,19 +2045,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-0.229</v>
+        <v>-0.966</v>
       </c>
       <c r="I18">
-        <v>6.766</v>
+        <v>3.537</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.826</v>
+        <v>0.395</v>
       </c>
       <c r="L18">
-        <v>0.831</v>
+        <v>0.494</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -2069,7 +2066,7 @@
         <v>73</v>
       </c>
       <c r="O18">
-        <v>-0.07099999999999999</v>
+        <v>-0.417</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2083,7 +2080,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -2095,19 +2092,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-1.43</v>
+        <v>-1.128</v>
       </c>
       <c r="I19">
-        <v>7.116</v>
+        <v>3.499</v>
       </c>
       <c r="J19" t="s">
         <v>57</v>
       </c>
       <c r="K19">
-        <v>0.195</v>
+        <v>0.331</v>
       </c>
       <c r="L19">
-        <v>0.266</v>
+        <v>0.451</v>
       </c>
       <c r="M19" t="s">
         <v>12</v>
@@ -2116,7 +2113,7 @@
         <v>74</v>
       </c>
       <c r="O19">
-        <v>-0.403</v>
+        <v>-0.489</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2130,11 +2127,11 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
@@ -2142,19 +2139,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-1.57</v>
+        <v>-1.669</v>
       </c>
       <c r="I20">
-        <v>150.784</v>
+        <v>135.355</v>
       </c>
       <c r="J20" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.118</v>
+        <v>0.097</v>
       </c>
       <c r="L20">
-        <v>0.197</v>
+        <v>0.242</v>
       </c>
       <c r="M20" t="s">
         <v>12</v>
@@ -2163,7 +2160,7 @@
         <v>75</v>
       </c>
       <c r="O20">
-        <v>-0.253</v>
+        <v>-0.282</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2180,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2189,19 +2186,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.532</v>
+        <v>0.518</v>
       </c>
       <c r="I21">
-        <v>7.137</v>
+        <v>3.407</v>
       </c>
       <c r="J21" t="s">
         <v>57</v>
       </c>
       <c r="K21">
-        <v>0.611</v>
+        <v>0.636</v>
       </c>
       <c r="L21">
-        <v>0.705</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="M21" t="s">
         <v>12</v>
@@ -2210,7 +2207,7 @@
         <v>76</v>
       </c>
       <c r="O21">
-        <v>0.154</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2224,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -2236,19 +2233,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-4.121</v>
+        <v>-3.851</v>
       </c>
       <c r="I22">
-        <v>14.725</v>
+        <v>6.744</v>
       </c>
       <c r="J22" t="s">
         <v>57</v>
       </c>
       <c r="K22">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="L22">
-        <v>0.005</v>
+        <v>0.034</v>
       </c>
       <c r="M22" t="s">
         <v>12</v>
@@ -2257,7 +2254,7 @@
         <v>77</v>
       </c>
       <c r="O22">
-        <v>-0.723</v>
+        <v>-0.794</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2271,11 +2268,11 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
@@ -2283,28 +2280,28 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.214</v>
+        <v>-0.194</v>
       </c>
       <c r="I23">
-        <v>150.69</v>
+        <v>134.854</v>
       </c>
       <c r="J23" t="s">
         <v>57</v>
       </c>
       <c r="K23">
-        <v>0.831</v>
+        <v>0.846</v>
       </c>
       <c r="L23">
-        <v>0.831</v>
+        <v>0.846</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O23">
-        <v>0.034</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2321,7 +2318,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2330,28 +2327,28 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4.452</v>
+        <v>3.844</v>
       </c>
       <c r="I24">
-        <v>13.049</v>
+        <v>5.817</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L24">
-        <v>0.005</v>
+        <v>0.034</v>
       </c>
       <c r="M24" t="s">
         <v>12</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24">
-        <v>0.845</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2365,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
@@ -2377,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-3.523</v>
+        <v>-4.372</v>
       </c>
       <c r="I25">
-        <v>11.946</v>
+        <v>6.229</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
@@ -2389,16 +2386,16 @@
         <v>0.004</v>
       </c>
       <c r="L25">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="M25" t="s">
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25">
-        <v>-0.673</v>
+        <v>-0.9409999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2412,11 +2409,11 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
@@ -2424,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1.868</v>
+        <v>1.145</v>
       </c>
       <c r="I26">
-        <v>136.764</v>
+        <v>130.772</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.064</v>
+        <v>0.254</v>
       </c>
       <c r="L26">
-        <v>0.12</v>
+        <v>0.381</v>
       </c>
       <c r="M26" t="s">
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26">
-        <v>0.297</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2462,7 +2459,7 @@
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2471,28 +2468,28 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>5.421</v>
+        <v>5.511</v>
       </c>
       <c r="I27">
-        <v>7.985</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="L27">
-        <v>0.005</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="s">
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27">
-        <v>1.391</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2506,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -2518,28 +2515,28 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-1.677</v>
+        <v>-1.631</v>
       </c>
       <c r="I28">
-        <v>6.17</v>
+        <v>3.239</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.143</v>
+        <v>0.195</v>
       </c>
       <c r="L28">
-        <v>0.214</v>
+        <v>0.366</v>
       </c>
       <c r="M28" t="s">
         <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28">
-        <v>-0.596</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2553,11 +2550,11 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
         <v>21</v>
       </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
@@ -2565,28 +2562,28 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2.475</v>
+        <v>1.926</v>
       </c>
       <c r="I29">
-        <v>138.868</v>
+        <v>132.063</v>
       </c>
       <c r="J29" t="s">
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.015</v>
+        <v>0.056</v>
       </c>
       <c r="L29">
-        <v>0.045</v>
+        <v>0.168</v>
       </c>
       <c r="M29" t="s">
         <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29">
-        <v>0.394</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2603,7 +2600,7 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2612,28 +2609,28 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2.705</v>
+        <v>2.127</v>
       </c>
       <c r="I30">
-        <v>5.577</v>
+        <v>3.157</v>
       </c>
       <c r="J30" t="s">
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.038</v>
+        <v>0.119</v>
       </c>
       <c r="L30">
-        <v>0.095</v>
+        <v>0.255</v>
       </c>
       <c r="M30" t="s">
         <v>12</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O30">
-        <v>1.331</v>
+        <v>1.573</v>
       </c>
     </row>
   </sheetData>
